--- a/Input_files/Actual_testcases/Pride/Home Page/Basic check - Storefront/TC01_Basic_check.xlsx
+++ b/Input_files/Actual_testcases/Pride/Home Page/Basic check - Storefront/TC01_Basic_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Rohit\Automation\Pride\Input_files\Actual_testcases\Pride\Home Page\Basic check - Storefront\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA418FB-8270-4018-A75C-986D68B56CA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD12F0-55D4-474D-B8F6-F29126821D7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Sanity_Basic_check" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>TestCase</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>searchbox</t>
+  </si>
+  <si>
+    <t>Inp</t>
+  </si>
+  <si>
+    <t>ENTERTEXT</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -610,6 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="21" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1003,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1078,6 +1085,21 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1089,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1141,6 +1163,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="b8c4fded-a617-4fec-89fd-073dfa2c08d2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0783E443C8B2E4D86482AF37E21733C" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="beefd8ae230bf9bc5b20883ad1812135">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8c4fded-a617-4fec-89fd-073dfa2c08d2" xmlns:ns3="3785f771-2ca9-476f-abdb-5f1d4dc63a44" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685e48cbdf3d686db30980467da60277" ns2:_="" ns3:_="">
     <xsd:import namespace="b8c4fded-a617-4fec-89fd-073dfa2c08d2"/>
@@ -1345,14 +1375,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="b8c4fded-a617-4fec-89fd-073dfa2c08d2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1363,6 +1385,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E802583-E4E1-48A3-AF6C-C4E7EB37CD67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b8c4fded-a617-4fec-89fd-073dfa2c08d2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F06B375-04A3-4332-9AC2-2EC5A1F1BCCE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1381,16 +1413,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E802583-E4E1-48A3-AF6C-C4E7EB37CD67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b8c4fded-a617-4fec-89fd-073dfa2c08d2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ED9E284-EBD9-4839-8B9A-FFAD12095A14}">
   <ds:schemaRefs>
